--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_112_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_112_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.5466374448570916, 1.9628688029033396]</t>
+          <t>[1.543185520129835, 1.9663207276305963]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.4906055233248878]</t>
+          <t>[1.2516054816103477, 1.5031844728888117]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.054636622881021335, 0.3073220257091105]</t>
+          <t>[0.05460717102358381, 0.307351477566548]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.005986971033021149</v>
+        <v>0.005997741074137641</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005986971033021149</v>
+        <v>0.005997741074137641</v>
       </c>
       <c r="W2" t="n">
         <v>16.74774774774792</v>
       </c>
       <c r="X2" t="n">
-        <v>16.36126126126143</v>
+        <v>16.31831831831849</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.13423423423441</v>
+        <v>17.17717717717736</v>
       </c>
     </row>
   </sheetData>
